--- a/DragPrediction/NL2VP DragX/0.5T/n/7/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.5T/n/7/test.xlsx
@@ -348,15 +348,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -372,8 +372,11 @@
       <c r="E1">
         <v>8.1675991735537194E-3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1">
+        <v>1.55555556E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>62.887388999999999</v>
       </c>
@@ -394,8 +397,16 @@
         <f>SUM(E2:E81)</f>
         <v>6.7310200348537448</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <f>A2*$G$1</f>
+        <v>0.97824827612832832</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G81)</f>
+        <v>12.819526787738335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>53.492429999999999</v>
       </c>
@@ -412,8 +423,12 @@
         <f t="shared" ref="E3:E66" si="0">A3*$E$1</f>
         <v>0.43690472705938016</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">A3*$G$1</f>
+        <v>0.83210446904410795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>50.131286000000003</v>
       </c>
@@ -430,8 +445,12 @@
         <f t="shared" si="0"/>
         <v>0.40945225010278519</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.77982000667250162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>33.888874999999999</v>
       </c>
@@ -448,8 +467,12 @@
         <f t="shared" si="0"/>
         <v>0.2767907474426653</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.52716027928394993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>52.112028000000002</v>
       </c>
@@ -466,8 +489,12 @@
         <f t="shared" si="0"/>
         <v>0.42563015682500832</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.8106315489827568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>29.033749</v>
       </c>
@@ -484,8 +511,12 @@
         <f t="shared" si="0"/>
         <v>0.23713602433756611</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.45163609684594441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>25.312127</v>
       </c>
@@ -502,8 +533,12 @@
         <f t="shared" si="0"/>
         <v>0.2067393075660868</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.39374419890276119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>47.124653000000002</v>
       </c>
@@ -520,8 +555,12 @@
         <f t="shared" si="0"/>
         <v>0.3848952768968058</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.73305015987220679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>27.011613000000001</v>
       </c>
@@ -538,8 +577,12 @@
         <f t="shared" si="0"/>
         <v>0.2206200280151529</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.42018064786718279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.386932</v>
       </c>
@@ -556,8 +599,12 @@
         <f t="shared" si="0"/>
         <v>3.1603054834214877E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>6.0189422394192E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>30.461148999999999</v>
       </c>
@@ -574,8 +621,12 @@
         <f t="shared" si="0"/>
         <v>0.24879445539789669</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.47384009690938439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>-0.41207500000000002</v>
       </c>
@@ -592,8 +643,12 @@
         <f t="shared" si="0"/>
         <v>-3.365663429442149E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-6.4100555738700006E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>31.868293999999999</v>
       </c>
@@ -610,8 +665,12 @@
         <f t="shared" si="0"/>
         <v>0.26028745173696693</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.49572901919414636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>0.54984599999999995</v>
       </c>
@@ -628,8 +687,12 @@
         <f t="shared" si="0"/>
         <v>4.4909217351818184E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>8.5531600244375984E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>23.467086999999999</v>
       </c>
@@ -646,8 +709,12 @@
         <f t="shared" si="0"/>
         <v>0.19166976038691322</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.3650435765985372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>-0.32141399999999998</v>
       </c>
@@ -664,8 +731,12 @@
         <f t="shared" si="0"/>
         <v>-2.6251807207685949E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>-4.9997733476183992E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>17.976555000000001</v>
       </c>
@@ -682,8 +753,12 @@
         <f t="shared" si="0"/>
         <v>0.14682529576134298</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.27963530079895799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>1.39317</v>
       </c>
@@ -700,8 +775,12 @@
         <f t="shared" si="0"/>
         <v>1.1378854140619836E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>2.1671533395252001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>-1.269406</v>
       </c>
@@ -718,8 +797,12 @@
         <f t="shared" si="0"/>
         <v>-1.0367999396504133E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>-1.9746315611973601E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>-1.4819880000000001</v>
       </c>
@@ -736,8 +819,12 @@
         <f t="shared" si="0"/>
         <v>-1.210428396401653E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>-2.3053146732532802E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>-1.7465660000000001</v>
       </c>
@@ -754,8 +841,12 @@
         <f t="shared" si="0"/>
         <v>-1.4265251018157026E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-2.7168804522069601E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>-0.38211600000000001</v>
       </c>
@@ -772,8 +863,12 @@
         <f t="shared" si="0"/>
         <v>-3.1209703258016533E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>-5.9440266836496003E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>-5.8153999999999997E-2</v>
       </c>
@@ -790,8 +885,12 @@
         <f t="shared" si="0"/>
         <v>-4.7497856233884295E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>-9.0461778036239995E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>-1.4917640000000001</v>
       </c>
@@ -808,8 +907,12 @@
         <f t="shared" si="0"/>
         <v>-1.2184130413537192E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>-2.3205217844078401E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>6.3614879999999996</v>
       </c>
@@ -826,8 +929,12 @@
         <f t="shared" si="0"/>
         <v>5.1958084131371901E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>9.8956480282732795E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>6.2547560000000004</v>
       </c>
@@ -844,8 +951,12 @@
         <f t="shared" si="0"/>
         <v>5.1086339936380169E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>9.729620472243361E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>6.8735670000000004</v>
       </c>
@@ -862,8 +973,12 @@
         <f t="shared" si="0"/>
         <v>5.614054014856612E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0.10692215363882521</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>6.0945660000000004</v>
       </c>
@@ -880,8 +995,12 @@
         <f t="shared" si="0"/>
         <v>4.9777972224768603E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>9.4804360270869609E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>-5.4992919999999996</v>
       </c>
@@ -898,8 +1017,12 @@
         <f t="shared" si="0"/>
         <v>-4.4916012794330579E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-8.554454246663519E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>4.2115679999999998</v>
       </c>
@@ -916,8 +1039,12 @@
         <f t="shared" si="0"/>
         <v>3.4398399316165292E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>6.5513280187180792E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>-3.6980599999999999</v>
       </c>
@@ -934,8 +1061,12 @@
         <f t="shared" si="0"/>
         <v>-3.0204271799752068E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>-5.7525377942135997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>-3.8172670000000002</v>
       </c>
@@ -952,8 +1083,12 @@
         <f t="shared" si="0"/>
         <v>-3.1177906794433888E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>-5.9379709058545199E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>-4.5763420000000004</v>
       </c>
@@ -970,8 +1105,12 @@
         <f t="shared" si="0"/>
         <v>-3.7377727137099179E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>-7.1187542425615202E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>-5.6172380000000004</v>
       </c>
@@ -988,8 +1127,12 @@
         <f t="shared" si="0"/>
         <v>-4.5879348446454547E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>-8.7379258027432807E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>-7.3524240000000001</v>
       </c>
@@ -1006,8 +1149,12 @@
         <f t="shared" si="0"/>
         <v>-6.0051652186016533E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>-0.11437104032677439</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>-13.110492000000001</v>
       </c>
@@ -1024,8 +1171,12 @@
         <f t="shared" si="0"/>
         <v>-0.10708124362408265</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>-0.20394098724935522</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>-12.899713</v>
       </c>
@@ -1042,8 +1193,12 @@
         <f t="shared" si="0"/>
         <v>-0.10535968523788017</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>-0.20066220279554281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>-12.313097000000001</v>
       </c>
@@ -1060,8 +1215,12 @@
         <f t="shared" si="0"/>
         <v>-0.10056844088108678</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>-0.19153706499169321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>-10.916544999999999</v>
       </c>
@@ -1078,8 +1237,12 @@
         <f t="shared" si="0"/>
         <v>-8.9161963920061982E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>-0.16981292270740198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>-7.8818359999999998</v>
       </c>
@@ -1096,8 +1259,12 @@
         <f t="shared" si="0"/>
         <v>-6.4375677199685954E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>-0.1226063381280816</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>2.3594270000000002</v>
       </c>
@@ -1114,8 +1281,12 @@
         <f t="shared" si="0"/>
         <v>1.9270854015260332E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>3.6702197882641202E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>3.2276639999999999</v>
       </c>
@@ -1132,8 +1303,12 @@
         <f t="shared" si="0"/>
         <v>2.6362265818909093E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>5.0208106810118398E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>3.1832760000000002</v>
       </c>
@@ -1150,8 +1325,12 @@
         <f t="shared" si="0"/>
         <v>2.5999722426793392E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>4.9517626808145601E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>8.7501639999999998</v>
       </c>
@@ -1168,8 +1347,12 @@
         <f t="shared" si="0"/>
         <v>7.1467832254859504E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>0.1361136626111184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>3.4965839999999999</v>
       </c>
@@ -1186,8 +1369,12 @@
         <f t="shared" si="0"/>
         <v>2.8558696588661156E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>5.4391306822070398E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>4.3189929999999999</v>
       </c>
@@ -1204,8 +1391,12 @@
         <f t="shared" si="0"/>
         <v>3.5275803657384301E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>6.7184335747510801E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>4.6379840000000003</v>
       </c>
@@ -1222,8 +1413,12 @@
         <f t="shared" si="0"/>
         <v>3.7881194285355378E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>7.2146417983910402E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>8.7367650000000001</v>
       </c>
@@ -1240,8 +1435,12 @@
         <f t="shared" si="0"/>
         <v>7.1358394593533062E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0.13590523372163399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>9.1610309999999995</v>
       </c>
@@ -1258,8 +1457,12 @@
         <f t="shared" si="0"/>
         <v>7.4823629224500005E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>0.14250492707382359</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>8.9676120000000008</v>
       </c>
@@ -1276,8 +1479,12 @@
         <f t="shared" si="0"/>
         <v>7.3243860359950425E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>0.13949618706522721</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>9.3932610000000007</v>
       </c>
@@ -1294,8 +1501,12 @@
         <f t="shared" si="0"/>
         <v>7.6720390780574396E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>0.14611739375081162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>9.4050829999999994</v>
       </c>
@@ -1312,8 +1523,12 @@
         <f t="shared" si="0"/>
         <v>7.6816948138004132E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0.14630129152911478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>9.6629850000000008</v>
       </c>
@@ -1330,8 +1545,12 @@
         <f t="shared" si="0"/>
         <v>7.8923388300062E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>0.15031310042946602</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>10.171148000000001</v>
       </c>
@@ -1348,8 +1567,12 @@
         <f t="shared" si="0"/>
         <v>8.3073859998892566E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0.15821785822982881</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>6.1324329999999998</v>
       </c>
@@ -1366,8 +1589,12 @@
         <f t="shared" si="0"/>
         <v>5.0087254702673556E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>9.5393402494774793E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>10.377340999999999</v>
       </c>
@@ -1384,8 +1611,12 @@
         <f t="shared" si="0"/>
         <v>8.4757961775285121E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>0.16142530490565959</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>10.387377000000001</v>
       </c>
@@ -1402,8 +1633,12 @@
         <f t="shared" si="0"/>
         <v>8.483993180059092E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>0.16158142046166121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>8.5065340000000003</v>
       </c>
@@ -1420,8 +1655,12 @@
         <f t="shared" si="0"/>
         <v>6.9477960068206612E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0.13232386260029042</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>9.1962960000000002</v>
       </c>
@@ -1438,8 +1677,12 @@
         <f t="shared" si="0"/>
         <v>7.5111659609355383E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>0.14305349374205761</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>9.6974370000000008</v>
       </c>
@@ -1456,8 +1699,12 @@
         <f t="shared" si="0"/>
         <v>7.920477842678926E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>0.15084902043099721</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>9.8392199999999992</v>
       </c>
@@ -1474,8 +1721,12 @@
         <f t="shared" si="0"/>
         <v>8.0362805140413218E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>0.153054533770632</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>16.472722999999998</v>
       </c>
@@ -1492,8 +1743,12 @@
         <f t="shared" si="0"/>
         <v>0.13454259876097932</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>0.25624235850989879</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>9.8462409999999991</v>
       </c>
@@ -1510,8 +1765,12 @@
         <f t="shared" si="0"/>
         <v>8.042014985421074E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>0.15316374932649959</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>11.928051999999999</v>
       </c>
@@ -1528,8 +1787,12 @@
         <f t="shared" si="0"/>
         <v>9.7423547657305778E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>0.18554747608569119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>13.902818</v>
       </c>
@@ -1546,8 +1809,12 @@
         <f t="shared" si="0"/>
         <v>0.11355264480686778</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>0.2162660583956808</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>13.718284000000001</v>
       </c>
@@ -1561,11 +1828,15 @@
         <v>0.31762899999999999</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E81" si="1">A67*$E$1</f>
+        <f t="shared" ref="E67:E81" si="2">A67*$E$1</f>
         <v>0.11204544506097522</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="G67">
+        <f t="shared" ref="G67:G81" si="3">A67*$G$1</f>
+        <v>0.21339552949859042</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>14.599843999999999</v>
       </c>
@@ -1579,11 +1850,15 @@
         <v>0.63457799999999998</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11924567378841322</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="G68">
+        <f t="shared" si="3"/>
+        <v>0.22710868509332638</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>11.474834</v>
       </c>
@@ -1597,11 +1872,15 @@
         <v>0.637181</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.3721844695066114E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>0.17849741828777038</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>13.094974000000001</v>
       </c>
@@ -1615,11 +1894,15 @@
         <v>0.47657500000000003</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10695449882010745</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>0.2036995961375544</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>10.691022999999999</v>
       </c>
@@ -1633,11 +1916,15 @@
         <v>0.64338499999999998</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7319990619243795E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>0.1663048026973788</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>10.244042</v>
       </c>
@@ -1651,11 +1938,15 @@
         <v>0.64368599999999998</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3669228973049597E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>0.15935176489973521</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>12.737168</v>
       </c>
@@ -1669,11 +1960,15 @@
         <v>0.479431</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10403208283021488</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>0.1981337250105408</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>12.333415</v>
       </c>
@@ -1687,11 +1982,15 @@
         <v>0.48066999999999999</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10073439016109505</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>0.191853122770374</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>14.295094000000001</v>
       </c>
@@ -1705,11 +2004,15 @@
         <v>0.47865400000000002</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11675659794027274</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>0.22236812952422641</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>14.385164</v>
       </c>
@@ -1723,11 +2026,15 @@
         <v>0.32172200000000001</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11749225359783472</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="G76">
+        <f t="shared" si="3"/>
+        <v>0.22376921841711839</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>14.82245</v>
       </c>
@@ -1741,11 +2048,15 @@
         <v>0.47203699999999998</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12106383037004133</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="G77">
+        <f t="shared" si="3"/>
+        <v>0.23057144510322</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>14.104737999999999</v>
       </c>
@@ -1759,11 +2070,15 @@
         <v>0.31587500000000002</v>
       </c>
       <c r="E78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11520184643199173</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="G78">
+        <f t="shared" si="3"/>
+        <v>0.21940703618243279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>13.912077</v>
       </c>
@@ -1777,11 +2092,15 @@
         <v>0.315799</v>
       </c>
       <c r="E79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11362826860761571</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>0.21641008728498121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>14.357734000000001</v>
       </c>
@@ -1795,11 +2114,15 @@
         <v>0.31784099999999998</v>
       </c>
       <c r="E80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11726821635250415</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>0.22334252952701042</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>5.5358049999999999</v>
       </c>
@@ -1813,8 +2136,12 @@
         <v>0.322353</v>
       </c>
       <c r="E81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5214236342954545E-2</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="3"/>
+        <v>8.6112522468257999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1822,5 +2149,6 @@
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>